--- a/stimuli/specificity/stimuli_specificity_complete.xlsx
+++ b/stimuli/specificity/stimuli_specificity_complete.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="366">
   <si>
     <t>item_nr</t>
   </si>
@@ -111,9 +111,6 @@
     <t>diving</t>
   </si>
   <si>
-    <t>largest</t>
-  </si>
-  <si>
     <t>nocturnal</t>
   </si>
   <si>
@@ -303,9 +300,6 @@
     <t>smoky</t>
   </si>
   <si>
-    <t>french</t>
-  </si>
-  <si>
     <t>young</t>
   </si>
   <si>
@@ -405,9 +399,6 @@
     <t>orange</t>
   </si>
   <si>
-    <t>kerneled</t>
-  </si>
-  <si>
     <t>leafy</t>
   </si>
   <si>
@@ -621,12 +612,6 @@
     <t>dog</t>
   </si>
   <si>
-    <t>chihuahua</t>
-  </si>
-  <si>
-    <t>labrador</t>
-  </si>
-  <si>
     <t>pug</t>
   </si>
   <si>
@@ -675,9 +660,6 @@
     <t>watermelon</t>
   </si>
   <si>
-    <t>fruits</t>
-  </si>
-  <si>
     <t>apple</t>
   </si>
   <si>
@@ -777,9 +759,6 @@
     <t>whale</t>
   </si>
   <si>
-    <t>mammel</t>
-  </si>
-  <si>
     <t>giraffe</t>
   </si>
   <si>
@@ -885,9 +864,6 @@
     <t>seat</t>
   </si>
   <si>
-    <t>steat</t>
-  </si>
-  <si>
     <t>stool</t>
   </si>
   <si>
@@ -1080,9 +1056,6 @@
     <t>Is it fragrant?</t>
   </si>
   <si>
-    <t>Is it stripey?</t>
-  </si>
-  <si>
     <t>Has it got spines?</t>
   </si>
   <si>
@@ -1135,6 +1108,18 @@
   </si>
   <si>
     <t>Is it cold?</t>
+  </si>
+  <si>
+    <t>Chihuahua</t>
+  </si>
+  <si>
+    <t>Labrador</t>
+  </si>
+  <si>
+    <t>Is it stripy?</t>
+  </si>
+  <si>
+    <t>kernelled</t>
   </si>
 </sst>
 </file>
@@ -1518,8 +1503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P361"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E105" sqref="E105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1568,10 +1553,10 @@
         <v>12</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -1591,7 +1576,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -1629,7 +1614,7 @@
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -1667,7 +1652,7 @@
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G4">
         <v>6</v>
@@ -1711,7 +1696,7 @@
         <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G5">
         <v>9</v>
@@ -1752,7 +1737,7 @@
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G6">
         <v>9</v>
@@ -1793,7 +1778,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G7">
         <v>4</v>
@@ -1837,7 +1822,7 @@
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -1878,7 +1863,7 @@
         <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G9">
         <v>6</v>
@@ -1919,7 +1904,7 @@
         <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G10">
         <v>5</v>
@@ -1957,7 +1942,7 @@
         <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G11">
         <v>7</v>
@@ -1995,7 +1980,7 @@
         <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G12">
         <v>7</v>
@@ -2016,10 +2001,10 @@
         <v>612.84210526315803</v>
       </c>
       <c r="O12" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="P12" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -2039,7 +2024,7 @@
         <v>24</v>
       </c>
       <c r="F13" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G13">
         <v>7</v>
@@ -2077,7 +2062,7 @@
         <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -2121,7 +2106,7 @@
         <v>25</v>
       </c>
       <c r="F15" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G15">
         <v>4</v>
@@ -2165,7 +2150,7 @@
         <v>26</v>
       </c>
       <c r="F16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G16">
         <v>8</v>
@@ -2200,7 +2185,7 @@
         <v>27</v>
       </c>
       <c r="F17" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G17">
         <v>4</v>
@@ -2244,7 +2229,7 @@
         <v>28</v>
       </c>
       <c r="F18" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G18">
         <v>4</v>
@@ -2288,7 +2273,7 @@
         <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G19">
         <v>10</v>
@@ -2323,7 +2308,7 @@
         <v>24</v>
       </c>
       <c r="F20" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G20">
         <v>4</v>
@@ -2364,10 +2349,10 @@
         <v>14</v>
       </c>
       <c r="E21" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="F21" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G21">
         <v>4</v>
@@ -2411,7 +2396,7 @@
         <v>26</v>
       </c>
       <c r="F22" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G22">
         <v>7</v>
@@ -2455,7 +2440,7 @@
         <v>26</v>
       </c>
       <c r="F23" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G23">
         <v>4</v>
@@ -2496,10 +2481,10 @@
         <v>14</v>
       </c>
       <c r="E24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F24" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G24">
         <v>4</v>
@@ -2540,10 +2525,10 @@
         <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F25" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -2570,10 +2555,10 @@
         <v>526.67499999999995</v>
       </c>
       <c r="O25" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="P25" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
@@ -2593,7 +2578,7 @@
         <v>18</v>
       </c>
       <c r="F26" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G26">
         <v>4</v>
@@ -2634,10 +2619,10 @@
         <v>14</v>
       </c>
       <c r="E27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F27" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G27">
         <v>4</v>
@@ -2681,7 +2666,7 @@
         <v>24</v>
       </c>
       <c r="F28" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G28">
         <v>7</v>
@@ -2722,10 +2707,10 @@
         <v>13</v>
       </c>
       <c r="E29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F29" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G29">
         <v>4</v>
@@ -2766,10 +2751,10 @@
         <v>14</v>
       </c>
       <c r="E30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F30" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G30">
         <v>4</v>
@@ -2810,10 +2795,10 @@
         <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F31" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G31">
         <v>5</v>
@@ -2854,10 +2839,10 @@
         <v>13</v>
       </c>
       <c r="E32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F32" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G32">
         <v>4</v>
@@ -2898,10 +2883,10 @@
         <v>14</v>
       </c>
       <c r="E33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F33" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -2942,10 +2927,10 @@
         <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F34" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G34">
         <v>4</v>
@@ -2989,7 +2974,7 @@
         <v>22</v>
       </c>
       <c r="F35" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -3030,10 +3015,10 @@
         <v>14</v>
       </c>
       <c r="E36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F36" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G36">
         <v>4</v>
@@ -3077,7 +3062,7 @@
         <v>27</v>
       </c>
       <c r="F37" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G37">
         <v>5</v>
@@ -3104,10 +3089,10 @@
         <v>562.51428571428596</v>
       </c>
       <c r="O37" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="P37" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
@@ -3127,7 +3112,7 @@
         <v>27</v>
       </c>
       <c r="F38" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G38">
         <v>4</v>
@@ -3168,10 +3153,10 @@
         <v>14</v>
       </c>
       <c r="E39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F39" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G39">
         <v>4</v>
@@ -3212,10 +3197,10 @@
         <v>15</v>
       </c>
       <c r="E40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F40" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G40">
         <v>5</v>
@@ -3256,10 +3241,10 @@
         <v>13</v>
       </c>
       <c r="E41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F41" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G41">
         <v>5</v>
@@ -3294,10 +3279,10 @@
         <v>14</v>
       </c>
       <c r="E42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F42" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G42">
         <v>5</v>
@@ -3332,10 +3317,10 @@
         <v>15</v>
       </c>
       <c r="E43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F43" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G43">
         <v>7</v>
@@ -3361,7 +3346,7 @@
         <v>21</v>
       </c>
       <c r="F44" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G44">
         <v>5</v>
@@ -3388,10 +3373,10 @@
         <v>538.78378378378397</v>
       </c>
       <c r="O44" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="P44" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
@@ -3408,10 +3393,10 @@
         <v>14</v>
       </c>
       <c r="E45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F45" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G45">
         <v>5</v>
@@ -3455,7 +3440,7 @@
         <v>24</v>
       </c>
       <c r="F46" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G46">
         <v>5</v>
@@ -3487,10 +3472,10 @@
         <v>13</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F47" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G47">
         <v>8</v>
@@ -3531,10 +3516,10 @@
         <v>14</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G48">
         <v>8</v>
@@ -3575,10 +3560,10 @@
         <v>15</v>
       </c>
       <c r="E49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F49" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G49">
         <v>4</v>
@@ -3622,7 +3607,7 @@
         <v>26</v>
       </c>
       <c r="F50" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G50">
         <v>8</v>
@@ -3663,10 +3648,10 @@
         <v>14</v>
       </c>
       <c r="E51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G51">
         <v>8</v>
@@ -3707,10 +3692,10 @@
         <v>15</v>
       </c>
       <c r="E52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F52" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G52">
         <v>6</v>
@@ -3751,10 +3736,10 @@
         <v>13</v>
       </c>
       <c r="E53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G53">
         <v>8</v>
@@ -3795,10 +3780,10 @@
         <v>14</v>
       </c>
       <c r="E54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F54" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G54">
         <v>8</v>
@@ -3839,10 +3824,10 @@
         <v>15</v>
       </c>
       <c r="E55" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F55" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G55">
         <v>7</v>
@@ -3883,7 +3868,7 @@
         <v>27</v>
       </c>
       <c r="F56" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G56">
         <v>8</v>
@@ -3924,10 +3909,10 @@
         <v>14</v>
       </c>
       <c r="E57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F57" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G57">
         <v>8</v>
@@ -3968,10 +3953,10 @@
         <v>15</v>
       </c>
       <c r="E58" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F58" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G58">
         <v>8</v>
@@ -4009,10 +3994,10 @@
         <v>13</v>
       </c>
       <c r="E59" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F59" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G59">
         <v>8</v>
@@ -4053,10 +4038,10 @@
         <v>14</v>
       </c>
       <c r="E60" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F60" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G60">
         <v>8</v>
@@ -4083,10 +4068,10 @@
         <v>597.10526315789502</v>
       </c>
       <c r="O60" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="P60" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
@@ -4106,7 +4091,7 @@
         <v>26</v>
       </c>
       <c r="F61" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G61">
         <v>5</v>
@@ -4147,10 +4132,10 @@
         <v>13</v>
       </c>
       <c r="E62" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F62" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G62">
         <v>8</v>
@@ -4191,10 +4176,10 @@
         <v>14</v>
       </c>
       <c r="E63" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F63" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G63">
         <v>8</v>
@@ -4235,10 +4220,10 @@
         <v>15</v>
       </c>
       <c r="E64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G64">
         <v>5</v>
@@ -4282,7 +4267,7 @@
         <v>21</v>
       </c>
       <c r="F65" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G65">
         <v>3</v>
@@ -4323,10 +4308,10 @@
         <v>14</v>
       </c>
       <c r="E66" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F66" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G66">
         <v>3</v>
@@ -4370,7 +4355,7 @@
         <v>21</v>
       </c>
       <c r="F67" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G67">
         <v>3</v>
@@ -4390,10 +4375,10 @@
         <v>13</v>
       </c>
       <c r="E68" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F68" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G68">
         <v>3</v>
@@ -4420,10 +4405,10 @@
         <v>507.564102564103</v>
       </c>
       <c r="O68" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="P68" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
@@ -4440,10 +4425,10 @@
         <v>14</v>
       </c>
       <c r="E69" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F69" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G69">
         <v>3</v>
@@ -4484,10 +4469,10 @@
         <v>15</v>
       </c>
       <c r="E70" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F70" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G70">
         <v>9</v>
@@ -4511,10 +4496,10 @@
         <v>8.17</v>
       </c>
       <c r="O70" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="P70" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
@@ -4534,7 +4519,7 @@
         <v>26</v>
       </c>
       <c r="F71" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G71">
         <v>3</v>
@@ -4575,10 +4560,10 @@
         <v>14</v>
       </c>
       <c r="E72" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F72" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G72">
         <v>3</v>
@@ -4619,10 +4604,10 @@
         <v>15</v>
       </c>
       <c r="E73" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F73" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G73">
         <v>7</v>
@@ -4663,10 +4648,10 @@
         <v>13</v>
       </c>
       <c r="E74" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F74" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G74">
         <v>3</v>
@@ -4707,10 +4692,10 @@
         <v>14</v>
       </c>
       <c r="E75" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F75" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G75">
         <v>3</v>
@@ -4751,10 +4736,10 @@
         <v>15</v>
       </c>
       <c r="E76" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F76" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G76">
         <v>7</v>
@@ -4798,7 +4783,7 @@
         <v>27</v>
       </c>
       <c r="F77" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G77">
         <v>3</v>
@@ -4839,10 +4824,10 @@
         <v>14</v>
       </c>
       <c r="E78" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F78" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G78">
         <v>3</v>
@@ -4883,10 +4868,10 @@
         <v>15</v>
       </c>
       <c r="E79" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F79" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G79">
         <v>6</v>
@@ -4909,10 +4894,10 @@
         <v>13</v>
       </c>
       <c r="E80" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F80" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G80">
         <v>3</v>
@@ -4953,10 +4938,10 @@
         <v>14</v>
       </c>
       <c r="E81" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F81" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G81">
         <v>3</v>
@@ -4997,10 +4982,10 @@
         <v>15</v>
       </c>
       <c r="E82" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F82" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G82">
         <v>5</v>
@@ -5041,10 +5026,10 @@
         <v>13</v>
       </c>
       <c r="E83" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F83" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G83">
         <v>6</v>
@@ -5071,10 +5056,10 @@
         <v>530.05405405405395</v>
       </c>
       <c r="O83" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="P83" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
@@ -5091,10 +5076,10 @@
         <v>14</v>
       </c>
       <c r="E84" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F84" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G84">
         <v>6</v>
@@ -5138,7 +5123,7 @@
         <v>16</v>
       </c>
       <c r="F85" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G85">
         <v>4</v>
@@ -5173,10 +5158,10 @@
         <v>13</v>
       </c>
       <c r="E86" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G86">
         <v>8</v>
@@ -5220,7 +5205,7 @@
         <v>23</v>
       </c>
       <c r="F87" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G87">
         <v>8</v>
@@ -5247,10 +5232,10 @@
         <v>528.87179487179503</v>
       </c>
       <c r="O87" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="P87" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
@@ -5267,10 +5252,10 @@
         <v>15</v>
       </c>
       <c r="E88" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F88" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G88">
         <v>6</v>
@@ -5314,7 +5299,7 @@
         <v>16</v>
       </c>
       <c r="F89" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G89">
         <v>10</v>
@@ -5346,10 +5331,10 @@
         <v>14</v>
       </c>
       <c r="E90" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F90" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G90">
         <v>10</v>
@@ -5381,10 +5366,10 @@
         <v>15</v>
       </c>
       <c r="E91" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F91" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G91">
         <v>9</v>
@@ -5419,7 +5404,7 @@
         <v>18</v>
       </c>
       <c r="F92" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G92">
         <v>8</v>
@@ -5457,10 +5442,10 @@
         <v>14</v>
       </c>
       <c r="E93" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F93" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G93">
         <v>8</v>
@@ -5498,10 +5483,10 @@
         <v>15</v>
       </c>
       <c r="E94" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F94" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G94">
         <v>6</v>
@@ -5536,7 +5521,7 @@
         <v>24</v>
       </c>
       <c r="F95" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G95">
         <v>4</v>
@@ -5577,10 +5562,10 @@
         <v>14</v>
       </c>
       <c r="E96" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F96" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G96">
         <v>4</v>
@@ -5621,10 +5606,10 @@
         <v>15</v>
       </c>
       <c r="E97" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F97" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G97">
         <v>4</v>
@@ -5665,10 +5650,10 @@
         <v>13</v>
       </c>
       <c r="E98" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F98" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G98">
         <v>5</v>
@@ -5709,10 +5694,10 @@
         <v>14</v>
       </c>
       <c r="E99" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F99" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G99">
         <v>5</v>
@@ -5753,10 +5738,10 @@
         <v>15</v>
       </c>
       <c r="E100" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F100" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G100">
         <v>8</v>
@@ -5791,10 +5776,10 @@
         <v>13</v>
       </c>
       <c r="E101" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G101">
         <v>5</v>
@@ -5835,10 +5820,10 @@
         <v>14</v>
       </c>
       <c r="E102" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F102" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G102">
         <v>5</v>
@@ -5879,10 +5864,10 @@
         <v>15</v>
       </c>
       <c r="E103" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F103" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G103">
         <v>11</v>
@@ -5914,10 +5899,10 @@
         <v>13</v>
       </c>
       <c r="E104" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F104" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G104">
         <v>5</v>
@@ -5958,10 +5943,10 @@
         <v>14</v>
       </c>
       <c r="E105" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F105" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G105">
         <v>5</v>
@@ -6002,10 +5987,10 @@
         <v>15</v>
       </c>
       <c r="E106" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F106" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G106">
         <v>3</v>
@@ -6049,7 +6034,7 @@
         <v>16</v>
       </c>
       <c r="F107" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G107">
         <v>6</v>
@@ -6090,10 +6075,10 @@
         <v>14</v>
       </c>
       <c r="E108" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F108" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G108">
         <v>6</v>
@@ -6134,10 +6119,10 @@
         <v>15</v>
       </c>
       <c r="E109" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F109" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G109">
         <v>5</v>
@@ -6164,10 +6149,10 @@
         <v>527.36842105263202</v>
       </c>
       <c r="O109" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="P109" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
@@ -6184,10 +6169,10 @@
         <v>13</v>
       </c>
       <c r="E110" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F110" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G110">
         <v>8</v>
@@ -6225,10 +6210,10 @@
         <v>14</v>
       </c>
       <c r="E111" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F111" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G111">
         <v>8</v>
@@ -6266,10 +6251,10 @@
         <v>15</v>
       </c>
       <c r="E112" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F112" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G112">
         <v>10</v>
@@ -6310,7 +6295,7 @@
         <v>24</v>
       </c>
       <c r="F113" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G113">
         <v>4</v>
@@ -6351,10 +6336,10 @@
         <v>14</v>
       </c>
       <c r="E114" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F114" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G114">
         <v>4</v>
@@ -6398,7 +6383,7 @@
         <v>16</v>
       </c>
       <c r="F115" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G115">
         <v>5</v>
@@ -6430,10 +6415,10 @@
         <v>13</v>
       </c>
       <c r="E116" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F116" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G116">
         <v>3</v>
@@ -6474,10 +6459,10 @@
         <v>14</v>
       </c>
       <c r="E117" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F117" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G117">
         <v>3</v>
@@ -6521,7 +6506,7 @@
         <v>22</v>
       </c>
       <c r="F118" t="s">
-        <v>199</v>
+        <v>362</v>
       </c>
       <c r="G118">
         <v>9</v>
@@ -6556,10 +6541,10 @@
         <v>13</v>
       </c>
       <c r="E119" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F119" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G119">
         <v>3</v>
@@ -6600,10 +6585,10 @@
         <v>14</v>
       </c>
       <c r="E120" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F120" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G120">
         <v>3</v>
@@ -6630,10 +6615,10 @@
         <v>525.17499999999995</v>
       </c>
       <c r="O120" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="P120" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.25">
@@ -6650,10 +6635,10 @@
         <v>15</v>
       </c>
       <c r="E121" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F121" t="s">
-        <v>200</v>
+        <v>363</v>
       </c>
       <c r="G121">
         <v>8</v>
@@ -6685,7 +6670,7 @@
         <v>22</v>
       </c>
       <c r="F122" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G122">
         <v>3</v>
@@ -6726,10 +6711,10 @@
         <v>14</v>
       </c>
       <c r="E123" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F123" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G123">
         <v>3</v>
@@ -6770,10 +6755,10 @@
         <v>15</v>
       </c>
       <c r="E124" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F124" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G124">
         <v>3</v>
@@ -6811,7 +6796,7 @@
         <v>22</v>
       </c>
       <c r="F125" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G125">
         <v>5</v>
@@ -6846,10 +6831,10 @@
         <v>14</v>
       </c>
       <c r="E126" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F126" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G126">
         <v>5</v>
@@ -6884,10 +6869,10 @@
         <v>15</v>
       </c>
       <c r="E127" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F127" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G127">
         <v>8</v>
@@ -6928,10 +6913,10 @@
         <v>13</v>
       </c>
       <c r="E128" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F128" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G128">
         <v>4</v>
@@ -6958,10 +6943,10 @@
         <v>502.73684210526301</v>
       </c>
       <c r="O128" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="P128" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.25">
@@ -6978,10 +6963,10 @@
         <v>14</v>
       </c>
       <c r="E129" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F129" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G129">
         <v>4</v>
@@ -7022,10 +7007,10 @@
         <v>15</v>
       </c>
       <c r="E130" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F130" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G130">
         <v>8</v>
@@ -7060,10 +7045,10 @@
         <v>13</v>
       </c>
       <c r="E131" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F131" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G131">
         <v>6</v>
@@ -7104,10 +7089,10 @@
         <v>14</v>
       </c>
       <c r="E132" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F132" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G132">
         <v>6</v>
@@ -7148,10 +7133,10 @@
         <v>15</v>
       </c>
       <c r="E133" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F133" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="G133">
         <v>8</v>
@@ -7189,10 +7174,10 @@
         <v>13</v>
       </c>
       <c r="E134" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F134" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G134">
         <v>6</v>
@@ -7219,10 +7204,10 @@
         <v>513.42499999999995</v>
       </c>
       <c r="O134" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="P134" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.25">
@@ -7239,10 +7224,10 @@
         <v>14</v>
       </c>
       <c r="E135" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F135" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G135">
         <v>6</v>
@@ -7286,7 +7271,7 @@
         <v>18</v>
       </c>
       <c r="F136" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G136">
         <v>4</v>
@@ -7313,10 +7298,10 @@
         <v>522.02777777777806</v>
       </c>
       <c r="O136" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="P136" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.25">
@@ -7336,7 +7321,7 @@
         <v>18</v>
       </c>
       <c r="F137" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G137">
         <v>4</v>
@@ -7377,10 +7362,10 @@
         <v>14</v>
       </c>
       <c r="E138" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F138" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G138">
         <v>4</v>
@@ -7421,10 +7406,10 @@
         <v>15</v>
       </c>
       <c r="E139" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F139" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G139">
         <v>5</v>
@@ -7468,7 +7453,7 @@
         <v>24</v>
       </c>
       <c r="F140" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G140">
         <v>5</v>
@@ -7503,10 +7488,10 @@
         <v>14</v>
       </c>
       <c r="E141" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F141" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G141">
         <v>5</v>
@@ -7541,10 +7526,10 @@
         <v>15</v>
       </c>
       <c r="E142" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F142" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G142">
         <v>6</v>
@@ -7570,10 +7555,10 @@
         <v>13</v>
       </c>
       <c r="E143" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F143" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G143">
         <v>5</v>
@@ -7608,10 +7593,10 @@
         <v>14</v>
       </c>
       <c r="E144" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F144" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G144">
         <v>5</v>
@@ -7646,10 +7631,10 @@
         <v>15</v>
       </c>
       <c r="E145" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F145" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G145">
         <v>6</v>
@@ -7687,10 +7672,10 @@
         <v>13</v>
       </c>
       <c r="E146" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F146" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G146">
         <v>5</v>
@@ -7725,10 +7710,10 @@
         <v>14</v>
       </c>
       <c r="E147" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F147" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G147">
         <v>5</v>
@@ -7749,10 +7734,10 @@
         <v>522.65789473684197</v>
       </c>
       <c r="O147" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="P147" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.25">
@@ -7769,10 +7754,10 @@
         <v>15</v>
       </c>
       <c r="E148" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F148" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G148">
         <v>5</v>
@@ -7813,10 +7798,10 @@
         <v>13</v>
       </c>
       <c r="E149" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F149" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G149">
         <v>5</v>
@@ -7851,10 +7836,10 @@
         <v>14</v>
       </c>
       <c r="E150" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F150" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G150">
         <v>5</v>
@@ -7889,10 +7874,10 @@
         <v>15</v>
       </c>
       <c r="E151" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F151" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G151">
         <v>4</v>
@@ -7933,10 +7918,10 @@
         <v>13</v>
       </c>
       <c r="E152" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F152" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G152">
         <v>5</v>
@@ -7971,10 +7956,10 @@
         <v>14</v>
       </c>
       <c r="E153" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F153" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G153">
         <v>5</v>
@@ -8009,10 +7994,10 @@
         <v>15</v>
       </c>
       <c r="E154" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F154" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G154">
         <v>10</v>
@@ -8047,7 +8032,7 @@
         <v>16</v>
       </c>
       <c r="F155" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="G155">
         <v>6</v>
@@ -8073,10 +8058,10 @@
         <v>14</v>
       </c>
       <c r="E156" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F156" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G156">
         <v>5</v>
@@ -8111,10 +8096,10 @@
         <v>15</v>
       </c>
       <c r="E157" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F157" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G157">
         <v>5</v>
@@ -8141,10 +8126,10 @@
         <v>491.92500000000001</v>
       </c>
       <c r="O157" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="P157" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.25">
@@ -8164,7 +8149,7 @@
         <v>21</v>
       </c>
       <c r="F158" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="G158">
         <v>7</v>
@@ -8205,10 +8190,10 @@
         <v>14</v>
       </c>
       <c r="E159" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F159" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="G159">
         <v>7</v>
@@ -8249,10 +8234,10 @@
         <v>15</v>
       </c>
       <c r="E160" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F160" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G160">
         <v>6</v>
@@ -8296,7 +8281,7 @@
         <v>18</v>
       </c>
       <c r="F161" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="G161">
         <v>3</v>
@@ -8337,10 +8322,10 @@
         <v>14</v>
       </c>
       <c r="E162" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F162" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="G162">
         <v>3</v>
@@ -8381,10 +8366,10 @@
         <v>15</v>
       </c>
       <c r="E163" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F163" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="G163">
         <v>7</v>
@@ -8422,10 +8407,10 @@
         <v>13</v>
       </c>
       <c r="E164" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F164" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="G164">
         <v>3</v>
@@ -8452,10 +8437,10 @@
         <v>622.54054054054097</v>
       </c>
       <c r="O164" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="P164" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.25">
@@ -8475,7 +8460,7 @@
         <v>25</v>
       </c>
       <c r="F165" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="G165">
         <v>3</v>
@@ -8516,10 +8501,10 @@
         <v>15</v>
       </c>
       <c r="E166" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F166" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="G166">
         <v>4</v>
@@ -8546,10 +8531,10 @@
         <v>601.89473684210498</v>
       </c>
       <c r="O166" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="P166" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.25">
@@ -8566,10 +8551,10 @@
         <v>13</v>
       </c>
       <c r="E167" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F167" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="G167">
         <v>3</v>
@@ -8610,10 +8595,10 @@
         <v>14</v>
       </c>
       <c r="E168" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F168" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="G168">
         <v>3</v>
@@ -8640,10 +8625,10 @@
         <v>622.54054054054097</v>
       </c>
       <c r="O168" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="P168" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.25">
@@ -8663,7 +8648,7 @@
         <v>27</v>
       </c>
       <c r="F169" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="G169">
         <v>8</v>
@@ -8701,10 +8686,10 @@
         <v>13</v>
       </c>
       <c r="E170" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F170" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="G170">
         <v>6</v>
@@ -8745,10 +8730,10 @@
         <v>14</v>
       </c>
       <c r="E171" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F171" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="G171">
         <v>6</v>
@@ -8792,7 +8777,7 @@
         <v>24</v>
       </c>
       <c r="F172" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="G172">
         <v>4</v>
@@ -8827,10 +8812,10 @@
         <v>13</v>
       </c>
       <c r="E173" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F173" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="G173">
         <v>3</v>
@@ -8871,10 +8856,10 @@
         <v>14</v>
       </c>
       <c r="E174" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F174" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="G174">
         <v>3</v>
@@ -8901,10 +8886,10 @@
         <v>585.67567567567596</v>
       </c>
       <c r="O174" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="P174" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.25">
@@ -8924,7 +8909,7 @@
         <v>16</v>
       </c>
       <c r="F175" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G175">
         <v>5</v>
@@ -8962,7 +8947,7 @@
         <v>21</v>
       </c>
       <c r="F176" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="G176">
         <v>3</v>
@@ -9003,10 +8988,10 @@
         <v>14</v>
       </c>
       <c r="E177" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F177" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="G177">
         <v>3</v>
@@ -9050,7 +9035,7 @@
         <v>27</v>
       </c>
       <c r="F178" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="G178">
         <v>6</v>
@@ -9088,7 +9073,7 @@
         <v>21</v>
       </c>
       <c r="F179" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="G179">
         <v>5</v>
@@ -9115,10 +9100,10 @@
         <v>510.55</v>
       </c>
       <c r="O179" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="P179" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="180" spans="1:16" x14ac:dyDescent="0.25">
@@ -9135,10 +9120,10 @@
         <v>14</v>
       </c>
       <c r="E180" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F180" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="G180">
         <v>5</v>
@@ -9165,10 +9150,10 @@
         <v>510.55</v>
       </c>
       <c r="O180" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="P180" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="181" spans="1:16" x14ac:dyDescent="0.25">
@@ -9185,10 +9170,10 @@
         <v>15</v>
       </c>
       <c r="E181" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F181" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="G181">
         <v>5</v>
@@ -9232,7 +9217,7 @@
         <v>22</v>
       </c>
       <c r="F182" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G182">
         <v>5</v>
@@ -9273,10 +9258,10 @@
         <v>14</v>
       </c>
       <c r="E183" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F183" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G183">
         <v>5</v>
@@ -9320,7 +9305,7 @@
         <v>22</v>
       </c>
       <c r="F184" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="G184">
         <v>7</v>
@@ -9361,10 +9346,10 @@
         <v>13</v>
       </c>
       <c r="E185" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F185" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="G185">
         <v>7</v>
@@ -9405,10 +9390,10 @@
         <v>14</v>
       </c>
       <c r="E186" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F186" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="G186">
         <v>7</v>
@@ -9452,7 +9437,7 @@
         <v>22</v>
       </c>
       <c r="F187" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="G187">
         <v>3</v>
@@ -9490,7 +9475,7 @@
         <v>18</v>
       </c>
       <c r="F188" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="G188">
         <v>11</v>
@@ -9528,10 +9513,10 @@
         <v>14</v>
       </c>
       <c r="E189" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F189" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="G189">
         <v>11</v>
@@ -9569,10 +9554,10 @@
         <v>15</v>
       </c>
       <c r="E190" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F190" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="G190">
         <v>6</v>
@@ -9613,10 +9598,10 @@
         <v>13</v>
       </c>
       <c r="E191" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F191" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="G191">
         <v>10</v>
@@ -9654,10 +9639,10 @@
         <v>14</v>
       </c>
       <c r="E192" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F192" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="G192">
         <v>10</v>
@@ -9698,7 +9683,7 @@
         <v>27</v>
       </c>
       <c r="F193" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="G193">
         <v>7</v>
@@ -9736,7 +9721,7 @@
         <v>18</v>
       </c>
       <c r="F194" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="G194">
         <v>10</v>
@@ -9774,10 +9759,10 @@
         <v>14</v>
       </c>
       <c r="E195" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F195" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="G195">
         <v>10</v>
@@ -9818,7 +9803,7 @@
         <v>18</v>
       </c>
       <c r="F196" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="G196">
         <v>6</v>
@@ -9859,7 +9844,7 @@
         <v>27</v>
       </c>
       <c r="F197" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="G197">
         <v>6</v>
@@ -9900,10 +9885,10 @@
         <v>14</v>
       </c>
       <c r="E198" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F198" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="G198">
         <v>6</v>
@@ -9944,10 +9929,10 @@
         <v>15</v>
       </c>
       <c r="E199" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F199" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="G199">
         <v>7</v>
@@ -9982,7 +9967,7 @@
         <v>21</v>
       </c>
       <c r="F200" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G200">
         <v>4</v>
@@ -10023,10 +10008,10 @@
         <v>14</v>
       </c>
       <c r="E201" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="F201" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G201">
         <v>4</v>
@@ -10067,10 +10052,10 @@
         <v>15</v>
       </c>
       <c r="E202" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F202" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="G202">
         <v>8</v>
@@ -10088,10 +10073,10 @@
         <v>13.75</v>
       </c>
       <c r="O202" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="P202" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="203" spans="1:16" x14ac:dyDescent="0.25">
@@ -10108,10 +10093,10 @@
         <v>13</v>
       </c>
       <c r="E203" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F203" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="G203">
         <v>4</v>
@@ -10146,10 +10131,10 @@
         <v>14</v>
       </c>
       <c r="E204" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F204" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="G204">
         <v>4</v>
@@ -10184,10 +10169,10 @@
         <v>15</v>
       </c>
       <c r="E205" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F205" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="G205">
         <v>3</v>
@@ -10228,10 +10213,10 @@
         <v>13</v>
       </c>
       <c r="E206" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F206" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G206">
         <v>6</v>
@@ -10258,10 +10243,10 @@
         <v>600.513513513514</v>
       </c>
       <c r="O206" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="P206" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="207" spans="1:16" x14ac:dyDescent="0.25">
@@ -10278,10 +10263,10 @@
         <v>14</v>
       </c>
       <c r="E207" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F207" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G207">
         <v>6</v>
@@ -10322,10 +10307,10 @@
         <v>15</v>
       </c>
       <c r="E208" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F208" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G208">
         <v>9</v>
@@ -10360,7 +10345,7 @@
         <v>16</v>
       </c>
       <c r="F209" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G209">
         <v>6</v>
@@ -10401,10 +10386,10 @@
         <v>14</v>
       </c>
       <c r="E210" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F210" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G210">
         <v>6</v>
@@ -10431,10 +10416,10 @@
         <v>600.513513513514</v>
       </c>
       <c r="O210" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="P210" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="211" spans="1:16" x14ac:dyDescent="0.25">
@@ -10451,10 +10436,10 @@
         <v>15</v>
       </c>
       <c r="E211" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F211" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G211">
         <v>3</v>
@@ -10495,10 +10480,10 @@
         <v>13</v>
       </c>
       <c r="E212" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F212" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G212">
         <v>6</v>
@@ -10539,10 +10524,10 @@
         <v>14</v>
       </c>
       <c r="E213" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F213" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G213">
         <v>6</v>
@@ -10586,7 +10571,7 @@
         <v>21</v>
       </c>
       <c r="F214" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G214">
         <v>8</v>
@@ -10613,10 +10598,10 @@
         <v>661.27777777777806</v>
       </c>
       <c r="O214" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="P214" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="215" spans="1:16" x14ac:dyDescent="0.25">
@@ -10633,10 +10618,10 @@
         <v>13</v>
       </c>
       <c r="E215" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F215" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G215">
         <v>6</v>
@@ -10677,10 +10662,10 @@
         <v>14</v>
       </c>
       <c r="E216" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F216" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G216">
         <v>6</v>
@@ -10721,10 +10706,10 @@
         <v>15</v>
       </c>
       <c r="E217" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F217" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G217">
         <v>5</v>
@@ -10765,10 +10750,10 @@
         <v>13</v>
       </c>
       <c r="E218" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F218" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G218">
         <v>6</v>
@@ -10809,10 +10794,10 @@
         <v>14</v>
       </c>
       <c r="E219" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F219" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="G219">
         <v>6</v>
@@ -10835,7 +10820,7 @@
         <v>22</v>
       </c>
       <c r="F220" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="G220">
         <v>7</v>
@@ -10876,10 +10861,10 @@
         <v>13</v>
       </c>
       <c r="E221" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F221" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="G221">
         <v>4</v>
@@ -10914,10 +10899,10 @@
         <v>14</v>
       </c>
       <c r="E222" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F222" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="G222">
         <v>4</v>
@@ -10952,10 +10937,10 @@
         <v>15</v>
       </c>
       <c r="E223" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F223" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="G223">
         <v>5</v>
@@ -10999,7 +10984,7 @@
         <v>21</v>
       </c>
       <c r="F224" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="G224">
         <v>4</v>
@@ -11040,10 +11025,10 @@
         <v>14</v>
       </c>
       <c r="E225" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F225" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="G225">
         <v>4</v>
@@ -11084,10 +11069,10 @@
         <v>15</v>
       </c>
       <c r="E226" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F226" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="G226">
         <v>5</v>
@@ -11122,10 +11107,10 @@
         <v>13</v>
       </c>
       <c r="E227" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F227" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="G227">
         <v>5</v>
@@ -11166,10 +11151,10 @@
         <v>14</v>
       </c>
       <c r="E228" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F228" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="G228">
         <v>5</v>
@@ -11210,10 +11195,10 @@
         <v>15</v>
       </c>
       <c r="E229" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F229" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="G229">
         <v>4</v>
@@ -11257,7 +11242,7 @@
         <v>24</v>
       </c>
       <c r="F230" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="G230">
         <v>5</v>
@@ -11289,10 +11274,10 @@
         <v>14</v>
       </c>
       <c r="E231" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F231" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="G231">
         <v>5</v>
@@ -11324,10 +11309,10 @@
         <v>15</v>
       </c>
       <c r="E232" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F232" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="G232">
         <v>6</v>
@@ -11368,10 +11353,10 @@
         <v>13</v>
       </c>
       <c r="E233" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F233" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="G233">
         <v>6</v>
@@ -11412,10 +11397,10 @@
         <v>14</v>
       </c>
       <c r="E234" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F234" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="G234">
         <v>6</v>
@@ -11459,7 +11444,7 @@
         <v>18</v>
       </c>
       <c r="F235" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="G235">
         <v>6</v>
@@ -11494,10 +11479,10 @@
         <v>13</v>
       </c>
       <c r="E236" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F236" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G236">
         <v>4</v>
@@ -11538,10 +11523,10 @@
         <v>14</v>
       </c>
       <c r="E237" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F237" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="G237">
         <v>4</v>
@@ -11585,7 +11570,7 @@
         <v>27</v>
       </c>
       <c r="F238" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="G238">
         <v>4</v>
@@ -11626,10 +11611,10 @@
         <v>13</v>
       </c>
       <c r="E239" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F239" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="G239">
         <v>6</v>
@@ -11670,10 +11655,10 @@
         <v>14</v>
       </c>
       <c r="E240" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F240" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="G240">
         <v>6</v>
@@ -11714,10 +11699,10 @@
         <v>15</v>
       </c>
       <c r="E241" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F241" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="G241">
         <v>6</v>
@@ -11737,10 +11722,10 @@
         <v>13</v>
       </c>
       <c r="E242" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F242" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="G242">
         <v>7</v>
@@ -11781,10 +11766,10 @@
         <v>14</v>
       </c>
       <c r="E243" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F243" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="G243">
         <v>7</v>
@@ -11825,10 +11810,10 @@
         <v>15</v>
       </c>
       <c r="E244" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F244" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="G244">
         <v>6</v>
@@ -11863,10 +11848,10 @@
         <v>13</v>
       </c>
       <c r="E245" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F245" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="G245">
         <v>8</v>
@@ -11898,10 +11883,10 @@
         <v>14</v>
       </c>
       <c r="E246" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F246" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="G246">
         <v>8</v>
@@ -11936,7 +11921,7 @@
         <v>27</v>
       </c>
       <c r="F247" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="G247">
         <v>5</v>
@@ -11980,7 +11965,7 @@
         <v>18</v>
       </c>
       <c r="F248" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="G248">
         <v>7</v>
@@ -12021,10 +12006,10 @@
         <v>14</v>
       </c>
       <c r="E249" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F249" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="G249">
         <v>7</v>
@@ -12068,7 +12053,7 @@
         <v>18</v>
       </c>
       <c r="F250" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="G250">
         <v>9</v>
@@ -12100,10 +12085,10 @@
         <v>13</v>
       </c>
       <c r="E251" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F251" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="G251">
         <v>4</v>
@@ -12144,10 +12129,10 @@
         <v>14</v>
       </c>
       <c r="E252" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F252" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="G252">
         <v>4</v>
@@ -12191,7 +12176,7 @@
         <v>24</v>
       </c>
       <c r="F253" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="G253">
         <v>7</v>
@@ -12232,7 +12217,7 @@
         <v>26</v>
       </c>
       <c r="F254" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="G254">
         <v>7</v>
@@ -12273,10 +12258,10 @@
         <v>14</v>
       </c>
       <c r="E255" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F255" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="G255">
         <v>7</v>
@@ -12317,10 +12302,10 @@
         <v>15</v>
       </c>
       <c r="E256" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F256" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="G256">
         <v>9</v>
@@ -12361,7 +12346,7 @@
         <v>18</v>
       </c>
       <c r="F257" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="G257">
         <v>7</v>
@@ -12402,10 +12387,10 @@
         <v>14</v>
       </c>
       <c r="E258" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F258" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="G258">
         <v>7</v>
@@ -12449,7 +12434,7 @@
         <v>24</v>
       </c>
       <c r="F259" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="G259">
         <v>8</v>
@@ -12490,10 +12475,10 @@
         <v>13</v>
       </c>
       <c r="E260" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F260" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="G260">
         <v>5</v>
@@ -12534,10 +12519,10 @@
         <v>14</v>
       </c>
       <c r="E261" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F261" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="G261">
         <v>5</v>
@@ -12581,7 +12566,7 @@
         <v>22</v>
       </c>
       <c r="F262" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="G262">
         <v>6</v>
@@ -12622,10 +12607,10 @@
         <v>13</v>
       </c>
       <c r="E263" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F263" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G263">
         <v>5</v>
@@ -12666,10 +12651,10 @@
         <v>14</v>
       </c>
       <c r="E264" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F264" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G264">
         <v>5</v>
@@ -12710,10 +12695,10 @@
         <v>15</v>
       </c>
       <c r="E265" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F265" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="G265">
         <v>7</v>
@@ -12742,10 +12727,10 @@
         <v>13</v>
       </c>
       <c r="E266" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F266" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="G266">
         <v>5</v>
@@ -12786,10 +12771,10 @@
         <v>14</v>
       </c>
       <c r="E267" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F267" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="G267">
         <v>5</v>
@@ -12830,10 +12815,10 @@
         <v>15</v>
       </c>
       <c r="E268" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F268" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="G268">
         <v>7</v>
@@ -12874,10 +12859,10 @@
         <v>13</v>
       </c>
       <c r="E269" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F269" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="G269">
         <v>9</v>
@@ -12898,10 +12883,10 @@
         <v>569.64102564102598</v>
       </c>
       <c r="O269" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="P269" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="270" spans="1:16" x14ac:dyDescent="0.25">
@@ -12918,10 +12903,10 @@
         <v>14</v>
       </c>
       <c r="E270" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F270" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="G270">
         <v>9</v>
@@ -12959,7 +12944,7 @@
         <v>16</v>
       </c>
       <c r="F271" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="G271">
         <v>4</v>
@@ -13003,7 +12988,7 @@
         <v>22</v>
       </c>
       <c r="F272" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="G272">
         <v>4</v>
@@ -13044,10 +13029,10 @@
         <v>14</v>
       </c>
       <c r="E273" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F273" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="G273">
         <v>5</v>
@@ -13070,7 +13055,7 @@
         <v>16</v>
       </c>
       <c r="F274" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="G274">
         <v>5</v>
@@ -13114,7 +13099,7 @@
         <v>22</v>
       </c>
       <c r="F275" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="G275">
         <v>4</v>
@@ -13155,10 +13140,10 @@
         <v>14</v>
       </c>
       <c r="E276" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F276" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="G276">
         <v>4</v>
@@ -13199,10 +13184,10 @@
         <v>15</v>
       </c>
       <c r="E277" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F277" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="G277">
         <v>5</v>
@@ -13214,10 +13199,10 @@
         <v>606.54054054054097</v>
       </c>
       <c r="O277" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="P277" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="278" spans="1:16" x14ac:dyDescent="0.25">
@@ -13234,10 +13219,10 @@
         <v>13</v>
       </c>
       <c r="E278" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F278" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="G278">
         <v>6</v>
@@ -13263,10 +13248,10 @@
         <v>14</v>
       </c>
       <c r="E279" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F279" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="G279">
         <v>6</v>
@@ -13295,7 +13280,7 @@
         <v>26</v>
       </c>
       <c r="F280" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="G280">
         <v>6</v>
@@ -13330,7 +13315,7 @@
         <v>22</v>
       </c>
       <c r="F281" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="G281">
         <v>5</v>
@@ -13371,10 +13356,10 @@
         <v>14</v>
       </c>
       <c r="E282" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F282" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="G282">
         <v>5</v>
@@ -13415,10 +13400,10 @@
         <v>15</v>
       </c>
       <c r="E283" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F283" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="G283">
         <v>6</v>
@@ -13462,7 +13447,7 @@
         <v>24</v>
       </c>
       <c r="F284" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="G284">
         <v>4</v>
@@ -13497,10 +13482,10 @@
         <v>14</v>
       </c>
       <c r="E285" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F285" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="G285">
         <v>4</v>
@@ -13535,10 +13520,10 @@
         <v>15</v>
       </c>
       <c r="E286" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F286" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="G286">
         <v>4</v>
@@ -13570,7 +13555,7 @@
         <v>21</v>
       </c>
       <c r="F287" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="G287">
         <v>5</v>
@@ -13605,10 +13590,10 @@
         <v>14</v>
       </c>
       <c r="E288" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F288" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="G288">
         <v>5</v>
@@ -13643,10 +13628,10 @@
         <v>15</v>
       </c>
       <c r="E289" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F289" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="G289">
         <v>5</v>
@@ -13687,10 +13672,10 @@
         <v>13</v>
       </c>
       <c r="E290" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F290" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="G290">
         <v>6</v>
@@ -13731,10 +13716,10 @@
         <v>14</v>
       </c>
       <c r="E291" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F291" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="G291">
         <v>6</v>
@@ -13778,7 +13763,7 @@
         <v>22</v>
       </c>
       <c r="F292" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="G292">
         <v>5</v>
@@ -13819,10 +13804,10 @@
         <v>13</v>
       </c>
       <c r="E293" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F293" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="G293">
         <v>5</v>
@@ -13863,10 +13848,10 @@
         <v>14</v>
       </c>
       <c r="E294" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F294" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="G294">
         <v>5</v>
@@ -13907,10 +13892,10 @@
         <v>15</v>
       </c>
       <c r="E295" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F295" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="G295">
         <v>6</v>
@@ -13928,10 +13913,10 @@
         <v>5.78</v>
       </c>
       <c r="O295" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="P295" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="296" spans="1:16" x14ac:dyDescent="0.25">
@@ -13951,7 +13936,7 @@
         <v>26</v>
       </c>
       <c r="F296" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="G296">
         <v>4</v>
@@ -13992,10 +13977,10 @@
         <v>14</v>
       </c>
       <c r="E297" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F297" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="G297">
         <v>4</v>
@@ -14036,10 +14021,10 @@
         <v>15</v>
       </c>
       <c r="E298" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F298" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="G298">
         <v>6</v>
@@ -14077,7 +14062,7 @@
         <v>26</v>
       </c>
       <c r="F299" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="G299">
         <v>4</v>
@@ -14118,10 +14103,10 @@
         <v>14</v>
       </c>
       <c r="E300" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F300" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="G300">
         <v>4</v>
@@ -14148,10 +14133,10 @@
         <v>536.52631578947398</v>
       </c>
       <c r="O300" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="P300" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="301" spans="1:16" x14ac:dyDescent="0.25">
@@ -14168,10 +14153,10 @@
         <v>15</v>
       </c>
       <c r="E301" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F301" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="G301">
         <v>5</v>
@@ -14212,10 +14197,10 @@
         <v>13</v>
       </c>
       <c r="E302" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F302" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="G302">
         <v>4</v>
@@ -14256,10 +14241,10 @@
         <v>14</v>
       </c>
       <c r="E303" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F303" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="G303">
         <v>4</v>
@@ -14300,10 +14285,10 @@
         <v>15</v>
       </c>
       <c r="E304" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F304" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="G304">
         <v>6</v>
@@ -14341,7 +14326,7 @@
         <v>18</v>
       </c>
       <c r="F305" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G305">
         <v>9</v>
@@ -14376,10 +14361,10 @@
         <v>14</v>
       </c>
       <c r="E306" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F306" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G306">
         <v>9</v>
@@ -14417,7 +14402,7 @@
         <v>21</v>
       </c>
       <c r="F307" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="G307">
         <v>3</v>
@@ -14461,7 +14446,7 @@
         <v>26</v>
       </c>
       <c r="F308" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="G308">
         <v>4</v>
@@ -14502,10 +14487,10 @@
         <v>14</v>
       </c>
       <c r="E309" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F309" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="G309">
         <v>4</v>
@@ -14546,10 +14531,10 @@
         <v>15</v>
       </c>
       <c r="E310" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F310" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="G310">
         <v>3</v>
@@ -14584,10 +14569,10 @@
         <v>13</v>
       </c>
       <c r="E311" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F311" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="G311">
         <v>4</v>
@@ -14628,10 +14613,10 @@
         <v>14</v>
       </c>
       <c r="E312" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F312" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="G312">
         <v>4</v>
@@ -14672,10 +14657,10 @@
         <v>15</v>
       </c>
       <c r="E313" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F313" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="G313">
         <v>4</v>
@@ -14713,7 +14698,7 @@
         <v>21</v>
       </c>
       <c r="F314" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="G314">
         <v>7</v>
@@ -14751,10 +14736,10 @@
         <v>14</v>
       </c>
       <c r="E315" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F315" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="G315">
         <v>7</v>
@@ -14792,10 +14777,10 @@
         <v>15</v>
       </c>
       <c r="E316" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F316" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="G316">
         <v>4</v>
@@ -14836,10 +14821,10 @@
         <v>13</v>
       </c>
       <c r="E317" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F317" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="G317">
         <v>9</v>
@@ -14863,10 +14848,10 @@
         <v>4.17</v>
       </c>
       <c r="O317" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="P317" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="318" spans="1:16" x14ac:dyDescent="0.25">
@@ -14883,10 +14868,10 @@
         <v>14</v>
       </c>
       <c r="E318" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F318" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="G318">
         <v>9</v>
@@ -14927,7 +14912,7 @@
         <v>22</v>
       </c>
       <c r="F319" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="G319">
         <v>9</v>
@@ -14950,10 +14935,10 @@
         <v>13</v>
       </c>
       <c r="E320" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F320" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="G320">
         <v>9</v>
@@ -14991,10 +14976,10 @@
         <v>14</v>
       </c>
       <c r="E321" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F321" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="G321">
         <v>9</v>
@@ -15035,7 +15020,7 @@
         <v>16</v>
       </c>
       <c r="F322" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="G322">
         <v>6</v>
@@ -15062,10 +15047,10 @@
         <v>536.79487179487205</v>
       </c>
       <c r="O322" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="P322" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="323" spans="1:16" x14ac:dyDescent="0.25">
@@ -15082,10 +15067,10 @@
         <v>13</v>
       </c>
       <c r="E323" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F323" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="G323">
         <v>9</v>
@@ -15123,10 +15108,10 @@
         <v>14</v>
       </c>
       <c r="E324" t="s">
-        <v>127</v>
+        <v>365</v>
       </c>
       <c r="F324" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="G324">
         <v>9</v>
@@ -15164,10 +15149,10 @@
         <v>15</v>
       </c>
       <c r="E325" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F325" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="G325">
         <v>4</v>
@@ -15208,10 +15193,10 @@
         <v>13</v>
       </c>
       <c r="E326" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F326" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="G326">
         <v>9</v>
@@ -15249,10 +15234,10 @@
         <v>14</v>
       </c>
       <c r="E327" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F327" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="G327">
         <v>9</v>
@@ -15276,10 +15261,10 @@
         <v>4.17</v>
       </c>
       <c r="O327" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="P327" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="328" spans="1:16" x14ac:dyDescent="0.25">
@@ -15296,10 +15281,10 @@
         <v>15</v>
       </c>
       <c r="E328" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F328" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="G328">
         <v>7</v>
@@ -15340,10 +15325,10 @@
         <v>13</v>
       </c>
       <c r="E329" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F329" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="G329">
         <v>9</v>
@@ -15381,10 +15366,10 @@
         <v>14</v>
       </c>
       <c r="E330" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F330" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="G330">
         <v>9</v>
@@ -15425,7 +15410,7 @@
         <v>27</v>
       </c>
       <c r="F331" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="G331">
         <v>3</v>
@@ -15466,10 +15451,10 @@
         <v>13</v>
       </c>
       <c r="E332" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F332" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="G332">
         <v>9</v>
@@ -15507,10 +15492,10 @@
         <v>14</v>
       </c>
       <c r="E333" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F333" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="G333">
         <v>9</v>
@@ -15548,10 +15533,10 @@
         <v>15</v>
       </c>
       <c r="E334" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F334" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G334">
         <v>6</v>
@@ -15589,10 +15574,10 @@
         <v>13</v>
       </c>
       <c r="E335" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F335" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="G335">
         <v>9</v>
@@ -15630,10 +15615,10 @@
         <v>14</v>
       </c>
       <c r="E336" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F336" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="G336">
         <v>9</v>
@@ -15674,7 +15659,7 @@
         <v>21</v>
       </c>
       <c r="F337" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="G337">
         <v>7</v>
@@ -15718,7 +15703,7 @@
         <v>18</v>
       </c>
       <c r="F338" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G338">
         <v>7</v>
@@ -15759,10 +15744,10 @@
         <v>14</v>
       </c>
       <c r="E339" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F339" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G339">
         <v>7</v>
@@ -15789,10 +15774,10 @@
         <v>570.02631578947398</v>
       </c>
       <c r="O339" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="P339" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="340" spans="1:16" x14ac:dyDescent="0.25">
@@ -15809,10 +15794,10 @@
         <v>15</v>
       </c>
       <c r="E340" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F340" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="G340">
         <v>9</v>
@@ -15853,7 +15838,7 @@
         <v>27</v>
       </c>
       <c r="F341" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G341">
         <v>7</v>
@@ -15880,10 +15865,10 @@
         <v>570.02631578947398</v>
       </c>
       <c r="O341" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="P341" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="342" spans="1:16" x14ac:dyDescent="0.25">
@@ -15900,10 +15885,10 @@
         <v>14</v>
       </c>
       <c r="E342" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F342" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G342">
         <v>7</v>
@@ -15947,7 +15932,7 @@
         <v>16</v>
       </c>
       <c r="F343" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="G343">
         <v>7</v>
@@ -15982,10 +15967,10 @@
         <v>13</v>
       </c>
       <c r="E344" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F344" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G344">
         <v>7</v>
@@ -16026,10 +16011,10 @@
         <v>14</v>
       </c>
       <c r="E345" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F345" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G345">
         <v>7</v>
@@ -16073,7 +16058,7 @@
         <v>24</v>
       </c>
       <c r="F346" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="G346">
         <v>5</v>
@@ -16108,10 +16093,10 @@
         <v>13</v>
       </c>
       <c r="E347" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F347" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G347">
         <v>7</v>
@@ -16152,10 +16137,10 @@
         <v>14</v>
       </c>
       <c r="E348" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F348" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G348">
         <v>7</v>
@@ -16196,10 +16181,10 @@
         <v>15</v>
       </c>
       <c r="E349" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F349" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="G349">
         <v>9</v>
@@ -16240,7 +16225,7 @@
         <v>21</v>
       </c>
       <c r="F350" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G350">
         <v>7</v>
@@ -16281,10 +16266,10 @@
         <v>14</v>
       </c>
       <c r="E351" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F351" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G351">
         <v>7</v>
@@ -16328,7 +16313,7 @@
         <v>21</v>
       </c>
       <c r="F352" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="G352">
         <v>4</v>
@@ -16372,7 +16357,7 @@
         <v>26</v>
       </c>
       <c r="F353" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G353">
         <v>7</v>
@@ -16413,10 +16398,10 @@
         <v>14</v>
       </c>
       <c r="E354" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F354" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G354">
         <v>7</v>
@@ -16457,10 +16442,10 @@
         <v>15</v>
       </c>
       <c r="E355" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F355" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="G355">
         <v>7</v>
@@ -16501,10 +16486,10 @@
         <v>13</v>
       </c>
       <c r="E356" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F356" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="G356">
         <v>7</v>
@@ -16525,10 +16510,10 @@
         <v>538.76315789473699</v>
       </c>
       <c r="O356" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="P356" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="357" spans="1:16" x14ac:dyDescent="0.25">
@@ -16545,10 +16530,10 @@
         <v>14</v>
       </c>
       <c r="E357" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F357" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="G357">
         <v>7</v>
@@ -16583,10 +16568,10 @@
         <v>15</v>
       </c>
       <c r="E358" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F358" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="G358">
         <v>5</v>
@@ -16630,7 +16615,7 @@
         <v>22</v>
       </c>
       <c r="F359" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="G359">
         <v>4</v>
@@ -16671,10 +16656,10 @@
         <v>14</v>
       </c>
       <c r="E360" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F360" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="G360">
         <v>4</v>
@@ -16715,10 +16700,10 @@
         <v>15</v>
       </c>
       <c r="E361" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F361" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="G361">
         <v>9</v>

--- a/stimuli/specificity/stimuli_specificity_complete.xlsx
+++ b/stimuli/specificity/stimuli_specificity_complete.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\ownCloud\projects\FakeDiamond\stimuli\specificity\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryanlaw/ownCloud - Ryan Law@cloud.mrc-cbu.cam.ac.uk/projects/fake_diamond/stimuli/specificity/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58509782-7534-B740-9809-DEB2B10AAF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -888,9 +889,6 @@
     <t xml:space="preserve">Is it disobedient? </t>
   </si>
   <si>
-    <t>Does it have fins</t>
-  </si>
-  <si>
     <t>Does it have teeth?</t>
   </si>
   <si>
@@ -958,12 +956,15 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>Does it have fins?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1039,9 +1040,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1079,9 +1080,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1116,7 +1117,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1151,7 +1152,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1324,19 +1325,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="P102" sqref="P102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="16" max="16" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1386,7 +1387,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1427,7 +1428,7 @@
         <v>583.41666666666697</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1468,7 +1469,7 @@
         <v>583.41666666666697</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1515,7 +1516,7 @@
         <v>543.52631578947398</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1559,7 +1560,7 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1603,7 +1604,7 @@
         <v>8.33</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1650,7 +1651,7 @@
         <v>533.20512820512795</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>9</v>
       </c>
@@ -1691,7 +1692,7 @@
         <v>612.84210526315803</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>10</v>
       </c>
@@ -1735,10 +1736,10 @@
         <v>280</v>
       </c>
       <c r="Q9" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>11</v>
       </c>
@@ -1779,7 +1780,7 @@
         <v>566.02564102564099</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>12</v>
       </c>
@@ -1826,7 +1827,7 @@
         <v>504.83783783783798</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>13</v>
       </c>
@@ -1873,7 +1874,7 @@
         <v>504.83783783783798</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>14</v>
       </c>
@@ -1911,7 +1912,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>18</v>
       </c>
@@ -1958,7 +1959,7 @@
         <v>504.83783783783798</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>19</v>
       </c>
@@ -2005,7 +2006,7 @@
         <v>504.83783783783798</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>20</v>
       </c>
@@ -2052,7 +2053,7 @@
         <v>685.27027027026998</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>21</v>
       </c>
@@ -2099,7 +2100,7 @@
         <v>504.83783783783798</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>22</v>
       </c>
@@ -2146,7 +2147,7 @@
         <v>504.83783783783798</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>23</v>
       </c>
@@ -2196,10 +2197,10 @@
         <v>281</v>
       </c>
       <c r="Q19" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>24</v>
       </c>
@@ -2246,7 +2247,7 @@
         <v>504.83783783783798</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>25</v>
       </c>
@@ -2293,7 +2294,7 @@
         <v>504.83783783783798</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>26</v>
       </c>
@@ -2340,7 +2341,7 @@
         <v>562.56756756756795</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>27</v>
       </c>
@@ -2387,7 +2388,7 @@
         <v>504.83783783783798</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>28</v>
       </c>
@@ -2434,7 +2435,7 @@
         <v>504.83783783783798</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>29</v>
       </c>
@@ -2481,7 +2482,7 @@
         <v>599.10526315789502</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>30</v>
       </c>
@@ -2528,7 +2529,7 @@
         <v>504.83783783783798</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>31</v>
       </c>
@@ -2575,7 +2576,7 @@
         <v>504.83783783783798</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>32</v>
       </c>
@@ -2622,7 +2623,7 @@
         <v>566.34210526315803</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>36</v>
       </c>
@@ -2669,7 +2670,7 @@
         <v>545.18421052631595</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>37</v>
       </c>
@@ -2716,7 +2717,7 @@
         <v>545.18421052631595</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>38</v>
       </c>
@@ -2763,7 +2764,7 @@
         <v>614.66666666666697</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>39</v>
       </c>
@@ -2804,7 +2805,7 @@
         <v>528.38461538461502</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>40</v>
       </c>
@@ -2845,7 +2846,7 @@
         <v>528.38461538461502</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>41</v>
       </c>
@@ -2874,7 +2875,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>45</v>
       </c>
@@ -2921,7 +2922,7 @@
         <v>597.10526315789502</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>46</v>
       </c>
@@ -2968,7 +2969,7 @@
         <v>597.10526315789502</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>47</v>
       </c>
@@ -3015,7 +3016,7 @@
         <v>547.79999999999995</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>48</v>
       </c>
@@ -3062,7 +3063,7 @@
         <v>597.10526315789502</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>49</v>
       </c>
@@ -3109,7 +3110,7 @@
         <v>597.10526315789502</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>50</v>
       </c>
@@ -3156,7 +3157,7 @@
         <v>502.86486486486501</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>51</v>
       </c>
@@ -3203,7 +3204,7 @@
         <v>597.10526315789502</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>52</v>
       </c>
@@ -3250,7 +3251,7 @@
         <v>597.10526315789502</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>53</v>
       </c>
@@ -3294,7 +3295,7 @@
         <v>6.89</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>54</v>
       </c>
@@ -3341,7 +3342,7 @@
         <v>597.10526315789502</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>55</v>
       </c>
@@ -3388,7 +3389,7 @@
         <v>597.10526315789502</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>56</v>
       </c>
@@ -3432,7 +3433,7 @@
         <v>5.55</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>57</v>
       </c>
@@ -3479,7 +3480,7 @@
         <v>597.10526315789502</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>58</v>
       </c>
@@ -3529,10 +3530,10 @@
         <v>282</v>
       </c>
       <c r="Q48" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>59</v>
       </c>
@@ -3579,7 +3580,7 @@
         <v>510.27499999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>60</v>
       </c>
@@ -3626,7 +3627,7 @@
         <v>597.10526315789502</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>61</v>
       </c>
@@ -3673,7 +3674,7 @@
         <v>597.10526315789502</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>62</v>
       </c>
@@ -3720,7 +3721,7 @@
         <v>497.02499999999998</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>63</v>
       </c>
@@ -3767,7 +3768,7 @@
         <v>507.564102564103</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>64</v>
       </c>
@@ -3814,7 +3815,7 @@
         <v>507.564102564103</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>65</v>
       </c>
@@ -3840,7 +3841,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>66</v>
       </c>
@@ -3890,10 +3891,10 @@
         <v>283</v>
       </c>
       <c r="Q56" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>67</v>
       </c>
@@ -3940,7 +3941,7 @@
         <v>507.564102564103</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>68</v>
       </c>
@@ -3987,10 +3988,10 @@
         <v>284</v>
       </c>
       <c r="Q58" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>69</v>
       </c>
@@ -4037,7 +4038,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>70</v>
       </c>
@@ -4084,7 +4085,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>71</v>
       </c>
@@ -4131,7 +4132,7 @@
         <v>639.805555555556</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>72</v>
       </c>
@@ -4178,7 +4179,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>73</v>
       </c>
@@ -4225,7 +4226,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>74</v>
       </c>
@@ -4272,7 +4273,7 @@
         <v>645.18918918918905</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>75</v>
       </c>
@@ -4319,7 +4320,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>76</v>
       </c>
@@ -4366,7 +4367,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>77</v>
       </c>
@@ -4395,7 +4396,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>78</v>
       </c>
@@ -4442,7 +4443,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>79</v>
       </c>
@@ -4489,7 +4490,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>80</v>
       </c>
@@ -4536,7 +4537,7 @@
         <v>543.486486486486</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>84</v>
       </c>
@@ -4583,7 +4584,7 @@
         <v>528.87179487179503</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>85</v>
       </c>
@@ -4633,10 +4634,10 @@
         <v>285</v>
       </c>
       <c r="Q72" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>86</v>
       </c>
@@ -4683,7 +4684,7 @@
         <v>540.44736842105306</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>90</v>
       </c>
@@ -4727,7 +4728,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>91</v>
       </c>
@@ -4771,7 +4772,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>92</v>
       </c>
@@ -4809,7 +4810,7 @@
         <v>12.44</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>93</v>
       </c>
@@ -4856,7 +4857,7 @@
         <v>492.22500000000002</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>94</v>
       </c>
@@ -4903,7 +4904,7 @@
         <v>492.22500000000002</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>95</v>
       </c>
@@ -4950,7 +4951,7 @@
         <v>566.11111111111097</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>96</v>
       </c>
@@ -4997,7 +4998,7 @@
         <v>527.17948717948696</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>97</v>
       </c>
@@ -5044,7 +5045,7 @@
         <v>527.17948717948696</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>98</v>
       </c>
@@ -5085,7 +5086,7 @@
         <v>631.194444444444</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>99</v>
       </c>
@@ -5132,7 +5133,7 @@
         <v>509.34210526315798</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>100</v>
       </c>
@@ -5179,7 +5180,7 @@
         <v>509.34210526315798</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>101</v>
       </c>
@@ -5217,7 +5218,7 @@
         <v>8.83</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>102</v>
       </c>
@@ -5264,7 +5265,7 @@
         <v>555.02499999999998</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>103</v>
       </c>
@@ -5311,7 +5312,7 @@
         <v>555.02499999999998</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>104</v>
       </c>
@@ -5358,7 +5359,7 @@
         <v>552.61764705882399</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>105</v>
       </c>
@@ -5405,7 +5406,7 @@
         <v>575.85</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>106</v>
       </c>
@@ -5452,7 +5453,7 @@
         <v>575.85</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>107</v>
       </c>
@@ -5502,10 +5503,10 @@
         <v>286</v>
       </c>
       <c r="Q91" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>108</v>
       </c>
@@ -5549,7 +5550,7 @@
         <v>11.05</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>109</v>
       </c>
@@ -5593,7 +5594,7 @@
         <v>11.05</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>110</v>
       </c>
@@ -5637,7 +5638,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>114</v>
       </c>
@@ -5684,7 +5685,7 @@
         <v>525.17499999999995</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>115</v>
       </c>
@@ -5731,7 +5732,7 @@
         <v>525.17499999999995</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>116</v>
       </c>
@@ -5772,7 +5773,7 @@
         <v>5.0309999999999997</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>117</v>
       </c>
@@ -5819,7 +5820,7 @@
         <v>525.17499999999995</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>118</v>
       </c>
@@ -5869,10 +5870,10 @@
         <v>287</v>
       </c>
       <c r="Q99" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>119</v>
       </c>
@@ -5907,7 +5908,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>126</v>
       </c>
@@ -5954,13 +5955,13 @@
         <v>502.73684210526301</v>
       </c>
       <c r="P101" t="s">
-        <v>288</v>
+        <v>311</v>
       </c>
       <c r="Q101" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>127</v>
       </c>
@@ -6007,7 +6008,7 @@
         <v>502.73684210526301</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>128</v>
       </c>
@@ -6048,7 +6049,7 @@
         <v>688.22222222222194</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>129</v>
       </c>
@@ -6095,7 +6096,7 @@
         <v>513.42499999999995</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>130</v>
       </c>
@@ -6142,7 +6143,7 @@
         <v>513.42499999999995</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>131</v>
       </c>
@@ -6186,7 +6187,7 @@
         <v>5.63</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>132</v>
       </c>
@@ -6233,13 +6234,13 @@
         <v>513.42499999999995</v>
       </c>
       <c r="P107" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Q107" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>133</v>
       </c>
@@ -6286,7 +6287,7 @@
         <v>513.42499999999995</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>134</v>
       </c>
@@ -6333,13 +6334,13 @@
         <v>522.02777777777806</v>
       </c>
       <c r="P109" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Q109" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>135</v>
       </c>
@@ -6386,7 +6387,7 @@
         <v>499.18421052631601</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>136</v>
       </c>
@@ -6433,7 +6434,7 @@
         <v>499.18421052631601</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>137</v>
       </c>
@@ -6480,7 +6481,7 @@
         <v>551.05128205128199</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>141</v>
       </c>
@@ -6521,7 +6522,7 @@
         <v>522.65789473684197</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>142</v>
       </c>
@@ -6562,7 +6563,7 @@
         <v>522.65789473684197</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>143</v>
       </c>
@@ -6606,7 +6607,7 @@
         <v>3.78</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>144</v>
       </c>
@@ -6647,7 +6648,7 @@
         <v>522.65789473684197</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>145</v>
       </c>
@@ -6688,13 +6689,13 @@
         <v>522.65789473684197</v>
       </c>
       <c r="P117" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Q117" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>146</v>
       </c>
@@ -6741,7 +6742,7 @@
         <v>521.87179487179503</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>147</v>
       </c>
@@ -6782,7 +6783,7 @@
         <v>522.65789473684197</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>148</v>
       </c>
@@ -6823,7 +6824,7 @@
         <v>522.65789473684197</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>149</v>
       </c>
@@ -6870,7 +6871,7 @@
         <v>674.23529411764696</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>150</v>
       </c>
@@ -6911,7 +6912,7 @@
         <v>522.65789473684197</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>151</v>
       </c>
@@ -6952,7 +6953,7 @@
         <v>522.65789473684197</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>152</v>
       </c>
@@ -6990,7 +6991,7 @@
         <v>4.22</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>153</v>
       </c>
@@ -7022,7 +7023,7 @@
         <v>531.64864864864899</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>154</v>
       </c>
@@ -7063,7 +7064,7 @@
         <v>522.65789473684197</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>155</v>
       </c>
@@ -7110,13 +7111,13 @@
         <v>491.92500000000001</v>
       </c>
       <c r="P127" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Q127" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>156</v>
       </c>
@@ -7163,7 +7164,7 @@
         <v>601.11428571428598</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>157</v>
       </c>
@@ -7210,7 +7211,7 @@
         <v>601.11428571428598</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>158</v>
       </c>
@@ -7257,7 +7258,7 @@
         <v>532.32500000000005</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>159</v>
       </c>
@@ -7304,7 +7305,7 @@
         <v>622.54054054054097</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>160</v>
       </c>
@@ -7351,7 +7352,7 @@
         <v>622.54054054054097</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>161</v>
       </c>
@@ -7395,7 +7396,7 @@
         <v>8.26</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>162</v>
       </c>
@@ -7442,13 +7443,13 @@
         <v>622.54054054054097</v>
       </c>
       <c r="P134" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Q134" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>163</v>
       </c>
@@ -7495,7 +7496,7 @@
         <v>622.54054054054097</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>164</v>
       </c>
@@ -7542,13 +7543,13 @@
         <v>601.89473684210498</v>
       </c>
       <c r="P136" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Q136" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>165</v>
       </c>
@@ -7595,7 +7596,7 @@
         <v>622.54054054054097</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>166</v>
       </c>
@@ -7642,13 +7643,13 @@
         <v>622.54054054054097</v>
       </c>
       <c r="P138" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Q138" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>167</v>
       </c>
@@ -7692,7 +7693,7 @@
         <v>9.2200000000000006</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>168</v>
       </c>
@@ -7739,7 +7740,7 @@
         <v>538.18421052631595</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>169</v>
       </c>
@@ -7786,7 +7787,7 @@
         <v>538.18421052631595</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>170</v>
       </c>
@@ -7827,7 +7828,7 @@
         <v>535.52499999999998</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>174</v>
       </c>
@@ -7874,7 +7875,7 @@
         <v>585.67567567567596</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>175</v>
       </c>
@@ -7921,7 +7922,7 @@
         <v>585.67567567567596</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>176</v>
       </c>
@@ -7962,7 +7963,7 @@
         <v>549.243243243243</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>177</v>
       </c>
@@ -8009,13 +8010,13 @@
         <v>510.55</v>
       </c>
       <c r="P146" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Q146" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>178</v>
       </c>
@@ -8062,7 +8063,7 @@
         <v>510.55</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>179</v>
       </c>
@@ -8109,7 +8110,7 @@
         <v>587.55263157894694</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>180</v>
       </c>
@@ -8156,7 +8157,7 @@
         <v>510.27499999999998</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>181</v>
       </c>
@@ -8203,7 +8204,7 @@
         <v>510.27499999999998</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>182</v>
       </c>
@@ -8250,7 +8251,7 @@
         <v>614.35135135135101</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>183</v>
       </c>
@@ -8297,7 +8298,7 @@
         <v>608.29729729729695</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>184</v>
       </c>
@@ -8344,7 +8345,7 @@
         <v>608.29729729729695</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>185</v>
       </c>
@@ -8385,7 +8386,7 @@
         <v>538.36842105263202</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>192</v>
       </c>
@@ -8429,7 +8430,7 @@
         <v>6.94</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>193</v>
       </c>
@@ -8473,7 +8474,7 @@
         <v>6.94</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>194</v>
       </c>
@@ -8517,7 +8518,7 @@
         <v>7.45</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>195</v>
       </c>
@@ -8564,7 +8565,7 @@
         <v>575.78378378378397</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>196</v>
       </c>
@@ -8611,7 +8612,7 @@
         <v>575.78378378378397</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>197</v>
       </c>
@@ -8649,7 +8650,7 @@
         <v>9.3800000000000008</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>201</v>
       </c>
@@ -8690,7 +8691,7 @@
         <v>521.86842105263202</v>
       </c>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>202</v>
       </c>
@@ -8731,7 +8732,7 @@
         <v>521.86842105263202</v>
       </c>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>203</v>
       </c>
@@ -8778,7 +8779,7 @@
         <v>549.63157894736798</v>
       </c>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>204</v>
       </c>
@@ -8825,13 +8826,13 @@
         <v>600.513513513514</v>
       </c>
       <c r="P164" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q164" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="165" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>205</v>
       </c>
@@ -8878,7 +8879,7 @@
         <v>600.513513513514</v>
       </c>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>206</v>
       </c>
@@ -8916,7 +8917,7 @@
         <v>11.69</v>
       </c>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>207</v>
       </c>
@@ -8963,7 +8964,7 @@
         <v>600.513513513514</v>
       </c>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>208</v>
       </c>
@@ -9010,13 +9011,13 @@
         <v>600.513513513514</v>
       </c>
       <c r="P168" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Q168" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="169" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>209</v>
       </c>
@@ -9063,7 +9064,7 @@
         <v>580.86842105263202</v>
       </c>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>210</v>
       </c>
@@ -9110,7 +9111,7 @@
         <v>600.513513513514</v>
       </c>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>211</v>
       </c>
@@ -9157,7 +9158,7 @@
         <v>600.513513513514</v>
       </c>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>212</v>
       </c>
@@ -9204,13 +9205,13 @@
         <v>661.27777777777806</v>
       </c>
       <c r="P172" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Q172" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="173" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>213</v>
       </c>
@@ -9257,7 +9258,7 @@
         <v>600.513513513514</v>
       </c>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>214</v>
       </c>
@@ -9304,7 +9305,7 @@
         <v>600.513513513514</v>
       </c>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>215</v>
       </c>
@@ -9351,7 +9352,7 @@
         <v>542.375</v>
       </c>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>216</v>
       </c>
@@ -9398,7 +9399,7 @@
         <v>600.513513513514</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>217</v>
       </c>
@@ -9424,7 +9425,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>218</v>
       </c>
@@ -9471,7 +9472,7 @@
         <v>614.68421052631595</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>219</v>
       </c>
@@ -9512,7 +9513,7 @@
         <v>510.61538461538498</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>220</v>
       </c>
@@ -9553,7 +9554,7 @@
         <v>510.61538461538498</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>221</v>
       </c>
@@ -9600,7 +9601,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>225</v>
       </c>
@@ -9647,7 +9648,7 @@
         <v>510.15</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>226</v>
       </c>
@@ -9694,7 +9695,7 @@
         <v>510.15</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>227</v>
       </c>
@@ -9741,7 +9742,7 @@
         <v>538.07500000000005</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>228</v>
       </c>
@@ -9779,7 +9780,7 @@
         <v>555.27027027026998</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>229</v>
       </c>
@@ -9817,7 +9818,7 @@
         <v>555.27027027026998</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>230</v>
       </c>
@@ -9864,7 +9865,7 @@
         <v>661.36111111111097</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>231</v>
       </c>
@@ -9911,7 +9912,7 @@
         <v>573.36111111111097</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>232</v>
       </c>
@@ -9958,7 +9959,7 @@
         <v>573.36111111111097</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>233</v>
       </c>
@@ -9999,7 +10000,7 @@
         <v>633.11111111111097</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>237</v>
       </c>
@@ -10046,7 +10047,7 @@
         <v>553.9</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>238</v>
       </c>
@@ -10093,7 +10094,7 @@
         <v>553.9</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>239</v>
       </c>
@@ -10119,7 +10120,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>240</v>
       </c>
@@ -10166,7 +10167,7 @@
         <v>570.41666666666697</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>241</v>
       </c>
@@ -10213,7 +10214,7 @@
         <v>570.41666666666697</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>242</v>
       </c>
@@ -10254,7 +10255,7 @@
         <v>527.10526315789502</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>243</v>
       </c>
@@ -10292,7 +10293,7 @@
         <v>8.4499999999999993</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>244</v>
       </c>
@@ -10330,7 +10331,7 @@
         <v>8.4499999999999993</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>245</v>
       </c>
@@ -10377,7 +10378,7 @@
         <v>563.91428571428605</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>246</v>
       </c>
@@ -10424,7 +10425,7 @@
         <v>538.20000000000005</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>247</v>
       </c>
@@ -10471,7 +10472,7 @@
         <v>538.20000000000005</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>248</v>
       </c>
@@ -10509,7 +10510,7 @@
         <v>7.84</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>249</v>
       </c>
@@ -10556,7 +10557,7 @@
         <v>551.89189189189199</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>250</v>
       </c>
@@ -10603,7 +10604,7 @@
         <v>551.89189189189199</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>251</v>
       </c>
@@ -10647,7 +10648,7 @@
         <v>8.7200000000000006</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>252</v>
       </c>
@@ -10694,7 +10695,7 @@
         <v>635.92105263157896</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>253</v>
       </c>
@@ -10741,7 +10742,7 @@
         <v>635.92105263157896</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>254</v>
       </c>
@@ -10785,7 +10786,7 @@
         <v>5.1100000000000003</v>
       </c>
     </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>255</v>
       </c>
@@ -10832,7 +10833,7 @@
         <v>635.92105263157896</v>
       </c>
     </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>256</v>
       </c>
@@ -10879,7 +10880,7 @@
         <v>635.92105263157896</v>
       </c>
     </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>257</v>
       </c>
@@ -10926,7 +10927,7 @@
         <v>609.39473684210498</v>
       </c>
     </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>258</v>
       </c>
@@ -10973,7 +10974,7 @@
         <v>510.32499999999999</v>
       </c>
     </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>259</v>
       </c>
@@ -11020,7 +11021,7 @@
         <v>510.32499999999999</v>
       </c>
     </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>260</v>
       </c>
@@ -11067,7 +11068,7 @@
         <v>538.51282051281999</v>
       </c>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>261</v>
       </c>
@@ -11114,7 +11115,7 @@
         <v>526.02499999999998</v>
       </c>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>262</v>
       </c>
@@ -11161,7 +11162,7 @@
         <v>526.02499999999998</v>
       </c>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>263</v>
       </c>
@@ -11196,7 +11197,7 @@
         <v>706.06451612903197</v>
       </c>
     </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>264</v>
       </c>
@@ -11243,7 +11244,7 @@
         <v>541.38461538461502</v>
       </c>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>265</v>
       </c>
@@ -11290,7 +11291,7 @@
         <v>541.38461538461502</v>
       </c>
     </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>266</v>
       </c>
@@ -11337,7 +11338,7 @@
         <v>569.5</v>
       </c>
     </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>267</v>
       </c>
@@ -11378,13 +11379,13 @@
         <v>569.64102564102598</v>
       </c>
       <c r="P221" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Q221" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="222" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>268</v>
       </c>
@@ -11425,7 +11426,7 @@
         <v>569.64102564102598</v>
       </c>
     </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>269</v>
       </c>
@@ -11472,7 +11473,7 @@
         <v>529.31578947368405</v>
       </c>
     </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>270</v>
       </c>
@@ -11519,7 +11520,7 @@
         <v>569.11111111111097</v>
       </c>
     </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>271</v>
       </c>
@@ -11545,7 +11546,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>272</v>
       </c>
@@ -11592,7 +11593,7 @@
         <v>558.42499999999995</v>
       </c>
     </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>273</v>
       </c>
@@ -11639,7 +11640,7 @@
         <v>545.13513513513499</v>
       </c>
     </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>274</v>
       </c>
@@ -11686,7 +11687,7 @@
         <v>545.13513513513499</v>
       </c>
     </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>275</v>
       </c>
@@ -11718,13 +11719,13 @@
         <v>606.54054054054097</v>
       </c>
       <c r="P229" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="Q229" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="230" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>276</v>
       </c>
@@ -11756,7 +11757,7 @@
         <v>551.48717948718001</v>
       </c>
     </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>277</v>
       </c>
@@ -11788,7 +11789,7 @@
         <v>551.48717948718001</v>
       </c>
     </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>278</v>
       </c>
@@ -11826,7 +11827,7 @@
         <v>535.12820512820497</v>
       </c>
     </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>279</v>
       </c>
@@ -11873,7 +11874,7 @@
         <v>494.59459459459498</v>
       </c>
     </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>280</v>
       </c>
@@ -11920,7 +11921,7 @@
         <v>494.59459459459498</v>
       </c>
     </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>281</v>
       </c>
@@ -11967,7 +11968,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>285</v>
       </c>
@@ -12008,7 +12009,7 @@
         <v>542.05128205128199</v>
       </c>
     </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>286</v>
       </c>
@@ -12049,7 +12050,7 @@
         <v>542.05128205128199</v>
       </c>
     </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>287</v>
       </c>
@@ -12096,7 +12097,7 @@
         <v>534.36842105263202</v>
       </c>
     </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>288</v>
       </c>
@@ -12143,7 +12144,7 @@
         <v>544.4</v>
       </c>
     </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>289</v>
       </c>
@@ -12190,7 +12191,7 @@
         <v>544.4</v>
       </c>
     </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>290</v>
       </c>
@@ -12237,7 +12238,7 @@
         <v>559.35</v>
       </c>
     </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>291</v>
       </c>
@@ -12284,7 +12285,7 @@
         <v>552.97297297297303</v>
       </c>
     </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>292</v>
       </c>
@@ -12331,7 +12332,7 @@
         <v>552.97297297297303</v>
       </c>
     </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>293</v>
       </c>
@@ -12369,13 +12370,13 @@
         <v>5.78</v>
       </c>
       <c r="P244" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q244" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="245" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>294</v>
       </c>
@@ -12422,7 +12423,7 @@
         <v>536.52631578947398</v>
       </c>
     </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>295</v>
       </c>
@@ -12469,7 +12470,7 @@
         <v>536.52631578947398</v>
       </c>
     </row>
-    <row r="247" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>296</v>
       </c>
@@ -12510,7 +12511,7 @@
         <v>660.69696969696997</v>
       </c>
     </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>297</v>
       </c>
@@ -12557,7 +12558,7 @@
         <v>536.52631578947398</v>
       </c>
     </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>298</v>
       </c>
@@ -12604,13 +12605,13 @@
         <v>536.52631578947398</v>
       </c>
       <c r="P249" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Q249" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="250" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>299</v>
       </c>
@@ -12657,7 +12658,7 @@
         <v>543.67567567567596</v>
       </c>
     </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>306</v>
       </c>
@@ -12704,7 +12705,7 @@
         <v>509.05128205128199</v>
       </c>
     </row>
-    <row r="252" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>307</v>
       </c>
@@ -12751,7 +12752,7 @@
         <v>509.05128205128199</v>
       </c>
     </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>308</v>
       </c>
@@ -12792,7 +12793,7 @@
         <v>589.38888888888903</v>
       </c>
     </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>309</v>
       </c>
@@ -12839,7 +12840,7 @@
         <v>509.05128205128199</v>
       </c>
     </row>
-    <row r="255" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>310</v>
       </c>
@@ -12886,7 +12887,7 @@
         <v>509.05128205128199</v>
       </c>
     </row>
-    <row r="256" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>311</v>
       </c>
@@ -12927,7 +12928,7 @@
         <v>578.23076923076906</v>
       </c>
     </row>
-    <row r="257" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>312</v>
       </c>
@@ -12971,7 +12972,7 @@
         <v>7.67</v>
       </c>
     </row>
-    <row r="258" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>313</v>
       </c>
@@ -13015,7 +13016,7 @@
         <v>7.67</v>
       </c>
     </row>
-    <row r="259" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>314</v>
       </c>
@@ -13062,7 +13063,7 @@
         <v>530.41025641025601</v>
       </c>
     </row>
-    <row r="260" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>315</v>
       </c>
@@ -13106,13 +13107,13 @@
         <v>4.17</v>
       </c>
       <c r="P260" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Q260" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="261" spans="1:17" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="261" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>316</v>
       </c>
@@ -13156,7 +13157,7 @@
         <v>4.17</v>
       </c>
     </row>
-    <row r="262" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>317</v>
       </c>
@@ -13185,7 +13186,7 @@
         <v>3.46</v>
       </c>
     </row>
-    <row r="263" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>318</v>
       </c>
@@ -13229,7 +13230,7 @@
         <v>4.17</v>
       </c>
     </row>
-    <row r="264" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>319</v>
       </c>
@@ -13273,7 +13274,7 @@
         <v>4.17</v>
       </c>
     </row>
-    <row r="265" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>320</v>
       </c>
@@ -13320,13 +13321,13 @@
         <v>536.79487179487205</v>
       </c>
       <c r="P265" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="Q265" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="266" spans="1:17" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="266" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>321</v>
       </c>
@@ -13370,7 +13371,7 @@
         <v>4.17</v>
       </c>
     </row>
-    <row r="267" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>322</v>
       </c>
@@ -13414,7 +13415,7 @@
         <v>4.17</v>
       </c>
     </row>
-    <row r="268" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>323</v>
       </c>
@@ -13461,7 +13462,7 @@
         <v>549.02499999999998</v>
       </c>
     </row>
-    <row r="269" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>324</v>
       </c>
@@ -13505,7 +13506,7 @@
         <v>4.17</v>
       </c>
     </row>
-    <row r="270" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>325</v>
       </c>
@@ -13549,13 +13550,13 @@
         <v>4.17</v>
       </c>
       <c r="P270" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Q270" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="271" spans="1:17" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="271" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>326</v>
       </c>
@@ -13602,7 +13603,7 @@
         <v>574.91891891891896</v>
       </c>
     </row>
-    <row r="272" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>327</v>
       </c>
@@ -13646,7 +13647,7 @@
         <v>4.17</v>
       </c>
     </row>
-    <row r="273" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>328</v>
       </c>
@@ -13690,7 +13691,7 @@
         <v>4.17</v>
       </c>
     </row>
-    <row r="274" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>329</v>
       </c>
@@ -13737,7 +13738,7 @@
         <v>522.23076923076906</v>
       </c>
     </row>
-    <row r="275" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>330</v>
       </c>
@@ -13781,7 +13782,7 @@
         <v>4.17</v>
       </c>
     </row>
-    <row r="276" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>331</v>
       </c>
@@ -13825,7 +13826,7 @@
         <v>4.17</v>
       </c>
     </row>
-    <row r="277" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>332</v>
       </c>
@@ -13869,7 +13870,7 @@
         <v>4.84</v>
       </c>
     </row>
-    <row r="278" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>333</v>
       </c>
@@ -13913,7 +13914,7 @@
         <v>4.17</v>
       </c>
     </row>
-    <row r="279" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>334</v>
       </c>
@@ -13957,7 +13958,7 @@
         <v>4.17</v>
       </c>
     </row>
-    <row r="280" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>335</v>
       </c>
@@ -14004,7 +14005,7 @@
         <v>575.45000000000005</v>
       </c>
     </row>
-    <row r="281" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>336</v>
       </c>
@@ -14051,7 +14052,7 @@
         <v>570.02631578947398</v>
       </c>
     </row>
-    <row r="282" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>337</v>
       </c>
@@ -14098,13 +14099,13 @@
         <v>570.02631578947398</v>
       </c>
       <c r="P282" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Q282" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="283" spans="1:17" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="283" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>338</v>
       </c>
@@ -14148,7 +14149,7 @@
         <v>6.16</v>
       </c>
     </row>
-    <row r="284" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>339</v>
       </c>
@@ -14195,13 +14196,13 @@
         <v>570.02631578947398</v>
       </c>
       <c r="P284" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Q284" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="285" spans="1:17" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="285" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>340</v>
       </c>
@@ -14248,7 +14249,7 @@
         <v>570.02631578947398</v>
       </c>
     </row>
-    <row r="286" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>341</v>
       </c>
@@ -14289,7 +14290,7 @@
         <v>579.20000000000005</v>
       </c>
     </row>
-    <row r="287" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>345</v>
       </c>
@@ -14336,7 +14337,7 @@
         <v>570.02631578947398</v>
       </c>
     </row>
-    <row r="288" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>346</v>
       </c>
@@ -14383,7 +14384,7 @@
         <v>570.02631578947398</v>
       </c>
     </row>
-    <row r="289" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>347</v>
       </c>
@@ -14427,7 +14428,7 @@
         <v>7.94</v>
       </c>
     </row>
-    <row r="290" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>348</v>
       </c>
@@ -14474,7 +14475,7 @@
         <v>570.02631578947398</v>
       </c>
     </row>
-    <row r="291" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>349</v>
       </c>
@@ -14521,7 +14522,7 @@
         <v>570.02631578947398</v>
       </c>
     </row>
-    <row r="292" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>350</v>
       </c>
@@ -14568,7 +14569,7 @@
         <v>533.57894736842104</v>
       </c>
     </row>
-    <row r="293" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>351</v>
       </c>
@@ -14615,7 +14616,7 @@
         <v>570.02631578947398</v>
       </c>
     </row>
-    <row r="294" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>352</v>
       </c>
@@ -14662,7 +14663,7 @@
         <v>570.02631578947398</v>
       </c>
     </row>
-    <row r="295" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>353</v>
       </c>
@@ -14709,7 +14710,7 @@
         <v>596.65</v>
       </c>
     </row>
-    <row r="296" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>354</v>
       </c>
@@ -14750,13 +14751,13 @@
         <v>538.76315789473699</v>
       </c>
       <c r="P296" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q296" t="s">
         <v>309</v>
       </c>
-      <c r="Q296" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="297" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="297" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>355</v>
       </c>
@@ -14797,7 +14798,7 @@
         <v>538.76315789473699</v>
       </c>
     </row>
-    <row r="298" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>356</v>
       </c>
@@ -14844,7 +14845,7 @@
         <v>505.6</v>
       </c>
     </row>
-    <row r="299" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>357</v>
       </c>
@@ -14891,7 +14892,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="300" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>358</v>
       </c>
@@ -14938,7 +14939,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="301" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>359</v>
       </c>
@@ -14980,7 +14981,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q301"/>
+  <autoFilter ref="A1:Q301" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>